--- a/file/ucenter接口设计.xlsx
+++ b/file/ucenter接口设计.xlsx
@@ -9,47 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="905" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="注册" sheetId="1" r:id="rId2"/>
-    <sheet name="登陆" sheetId="9" r:id="rId3"/>
-    <sheet name="封闭登陆" sheetId="10" r:id="rId4"/>
+    <sheet name="注册" sheetId="1" r:id="rId1"/>
+    <sheet name="登陆" sheetId="9" r:id="rId2"/>
+    <sheet name="封闭登陆" sheetId="10" r:id="rId3"/>
+    <sheet name="退出" sheetId="11" r:id="rId4"/>
     <sheet name="绑定" sheetId="3" r:id="rId5"/>
     <sheet name="解绑" sheetId="2" r:id="rId6"/>
     <sheet name="账号关联" sheetId="5" r:id="rId7"/>
     <sheet name="取消关联" sheetId="6" r:id="rId8"/>
     <sheet name="找回密码" sheetId="7" r:id="rId9"/>
     <sheet name="修改密码" sheetId="8" r:id="rId10"/>
-    <sheet name="退出" sheetId="11" r:id="rId11"/>
-    <sheet name="非用户信息" sheetId="12" r:id="rId12"/>
-    <sheet name="登陆用户信息" sheetId="13" r:id="rId13"/>
-    <sheet name="系统来源" sheetId="14" r:id="rId14"/>
-    <sheet name="重复性校验1" sheetId="15" r:id="rId15"/>
-    <sheet name="手机号不存在关联" sheetId="16" r:id="rId16"/>
-    <sheet name="手机号存在关联" sheetId="19" r:id="rId17"/>
-    <sheet name="手机号是否可以关联" sheetId="18" r:id="rId18"/>
-    <sheet name="修改账号信息" sheetId="17" r:id="rId19"/>
+    <sheet name="非用户信息" sheetId="12" r:id="rId11"/>
+    <sheet name="登陆用户信息" sheetId="13" r:id="rId12"/>
+    <sheet name="系统来源" sheetId="14" r:id="rId13"/>
+    <sheet name="重复性校验1" sheetId="15" r:id="rId14"/>
+    <sheet name="手机号不存在关联" sheetId="16" r:id="rId15"/>
+    <sheet name="手机号存在关联" sheetId="19" r:id="rId16"/>
+    <sheet name="手机号是否可以关联" sheetId="18" r:id="rId17"/>
+    <sheet name="修改账号信息" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="266">
-  <si>
-    <t>已完成接口设计用例</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>绑定</t>
-  </si>
-  <si>
-    <t>解绑</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="256">
   <si>
     <t>账号关联</t>
   </si>
@@ -60,25 +47,7 @@
     <t>找回密码</t>
   </si>
   <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>封闭登陆</t>
-  </si>
-  <si>
     <t>退出</t>
-  </si>
-  <si>
-    <t>非登陆用户信息</t>
-  </si>
-  <si>
-    <t>登陆用户信息</t>
-  </si>
-  <si>
-    <t>下拉列表</t>
   </si>
   <si>
     <t>接口</t>
@@ -1440,6 +1409,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,15 +1425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1790,89 +1759,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1312132223</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1312132224</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1312132223</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1312132224</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1312132223</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1312132224</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1312132223</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1312132224</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F11" s="20">
+        <v>13121333335</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20">
+        <v>13121333333</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
+      <c r="B14" s="36"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="19">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="20">
+        <v>13121333333</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1898,40 +2139,40 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,16 +2180,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -1966,13 +2207,13 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -1990,11 +2231,11 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="25" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -2012,10 +2253,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -2034,13 +2275,13 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2056,13 +2297,13 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -2078,13 +2319,13 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2">
         <v>1234567</v>
@@ -2116,165 +2357,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -2294,16 +2376,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
@@ -2314,16 +2396,16 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2331,19 +2413,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G3" s="18">
         <v>200</v>
@@ -2355,10 +2437,10 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -2376,16 +2458,16 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G5" s="18">
         <v>200</v>
@@ -2397,10 +2479,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -2418,16 +2500,16 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G7" s="11">
         <v>200</v>
@@ -2439,10 +2521,10 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2460,16 +2542,16 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G9" s="11">
         <v>200</v>
@@ -2481,10 +2563,10 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
@@ -2502,16 +2584,16 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G11" s="11">
         <v>300</v>
@@ -2523,16 +2605,16 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G12" s="11">
         <v>300</v>
@@ -2544,16 +2626,16 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G13" s="11">
         <v>300</v>
@@ -2565,16 +2647,16 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G14" s="11">
         <v>300</v>
@@ -2586,14 +2668,14 @@
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15" s="11">
         <v>300</v>
@@ -2605,14 +2687,14 @@
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G16" s="11">
         <v>300</v>
@@ -2624,10 +2706,10 @@
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2661,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2681,32 +2763,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2714,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F3" s="18">
         <v>200</v>
@@ -2735,13 +2817,13 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="28" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F4" s="18">
         <v>200</v>
@@ -2753,11 +2835,11 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F5" s="18">
         <v>300</v>
@@ -2769,10 +2851,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="28" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="18">
@@ -2798,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2816,16 +2898,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="36"/>
     </row>
@@ -2834,10 +2916,10 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2845,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" s="18">
         <v>200</v>
@@ -2863,10 +2945,10 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4" s="18">
         <v>200</v>
@@ -2878,7 +2960,7 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="18">
@@ -2891,10 +2973,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E6" s="18">
         <v>300</v>
@@ -2919,7 +3001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2939,16 +3021,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -2958,13 +3040,13 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2972,15 +3054,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3053,40 +3135,40 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3094,22 +3176,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>13124325543</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="18">
         <v>200</v>
@@ -3121,19 +3203,19 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>1380100002</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18">
         <v>322</v>
@@ -3145,19 +3227,19 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>15000000021</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5" s="11">
         <v>322</v>
@@ -3169,17 +3251,17 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>18898765424</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H6" s="11">
         <v>300</v>
@@ -3191,17 +3273,17 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>18898765424</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="11">
         <v>300</v>
@@ -3213,17 +3295,17 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H8" s="11">
         <v>300</v>
@@ -3235,13 +3317,13 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>18898765424</v>
@@ -3270,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -3292,67 +3374,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="22" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>138</v>
+      <c r="B3" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="22">
         <v>19998765499</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H3" s="29">
         <v>123456</v>
@@ -3365,21 +3447,21 @@
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F4" s="22">
         <v>15000000001</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="29">
         <v>123456</v>
@@ -3392,21 +3474,21 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F5" s="22">
         <v>13121357781</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H5" s="29">
         <v>123456</v>
@@ -3419,21 +3501,21 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F6" s="22">
         <v>3033033140234</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H6" s="29">
         <v>123456</v>
@@ -3446,19 +3528,19 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="22">
         <v>19998765499</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="29">
         <v>123456</v>
@@ -3471,19 +3553,19 @@
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22">
         <v>19998765499</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H8" s="29">
         <v>123456</v>
@@ -3496,19 +3578,19 @@
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" s="29">
         <v>123456</v>
@@ -3521,21 +3603,21 @@
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="22" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F10" s="22">
         <v>19998765499</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="22">
@@ -3546,15 +3628,15 @@
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F11" s="22">
         <v>19998765499</v>
@@ -3586,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3605,32 +3687,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+        <v>206</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3638,16 +3720,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D3" s="18">
         <v>188888888888</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="18">
         <v>200</v>
@@ -3659,13 +3741,13 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="25" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D4" s="18">
         <v>18888888888</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F4" s="18">
         <v>320</v>
@@ -3677,13 +3759,13 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="25" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D5" s="18">
         <v>18888888888</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18">
         <v>200</v>
@@ -3695,13 +3777,13 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="25" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18">
         <v>18898765424</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18">
         <v>300</v>
@@ -3713,13 +3795,13 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D7" s="18">
         <v>18898765424</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" s="18">
         <v>300</v>
@@ -3744,7 +3826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3766,16 +3848,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3787,19 +3869,19 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3807,25 +3889,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>2345454447</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3834,22 +3916,22 @@
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3858,10 +3940,10 @@
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2">
         <v>13121333335</v>
@@ -3873,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3882,10 +3964,10 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
         <v>1123454544481</v>
@@ -3897,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3906,22 +3988,22 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3930,10 +4012,10 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>13121333334</v>
@@ -3945,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3954,22 +4036,22 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2">
         <v>2345454447</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3978,20 +4060,20 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4000,10 +4082,10 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2">
         <v>2345454447</v>
@@ -4013,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4022,20 +4104,20 @@
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2">
         <v>2345454447</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4044,16 +4126,16 @@
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2">
         <v>2345454447</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
@@ -4066,22 +4148,22 @@
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2">
         <v>2345454447</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4090,22 +4172,22 @@
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4114,10 +4196,10 @@
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2">
         <v>13121333335</v>
@@ -4129,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4162,366 +4244,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="20">
-        <v>1312132223</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1312132224</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1312132223</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="18">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1312132224</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="18">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1312132223</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="18">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1312132224</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="18">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1312132223</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="18">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1312132224</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="18">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F11" s="20">
-        <v>13121333335</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20">
-        <v>13121333333</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F14" s="20">
-        <v>13121333333</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4542,16 +4264,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -4563,39 +4285,39 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>69</v>
+      <c r="B3" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2">
         <v>123456</v>
@@ -4608,9 +4330,9 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>13121333335</v>
@@ -4619,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>123456</v>
@@ -4632,18 +4354,18 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>123456</v>
@@ -4656,9 +4378,9 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>2345454447</v>
@@ -4667,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>123456</v>
@@ -4680,18 +4402,18 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>1234567</v>
@@ -4704,18 +4426,18 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>1234567</v>
@@ -4728,18 +4450,18 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
         <v>123456</v>
@@ -4752,18 +4474,18 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>123456</v>
@@ -4776,18 +4498,18 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
         <v>123456</v>
@@ -4800,16 +4522,16 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
         <v>123456</v>
@@ -4822,16 +4544,16 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2">
         <v>123456</v>
@@ -4844,12 +4566,12 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -4866,18 +4588,18 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="18">
@@ -4888,18 +4610,18 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
         <v>123456</v>
@@ -4925,7 +4647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -4947,67 +4669,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>95</v>
+      <c r="B3" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
         <v>123456</v>
@@ -5020,9 +4742,9 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>13121333334</v>
@@ -5031,10 +4753,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
         <v>123456</v>
@@ -5047,21 +4769,21 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>123456</v>
@@ -5074,9 +4796,9 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>1123454544481</v>
@@ -5085,10 +4807,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>123456</v>
@@ -5101,21 +4823,21 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>123456</v>
@@ -5128,21 +4850,21 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>123456</v>
@@ -5155,21 +4877,21 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
         <v>123456</v>
@@ -5182,21 +4904,21 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2">
         <v>123456</v>
@@ -5209,21 +4931,21 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2">
         <v>123456</v>
@@ -5236,19 +4958,19 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2">
         <v>123456</v>
@@ -5261,19 +4983,19 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2">
         <v>123456</v>
@@ -5286,19 +5008,19 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
         <v>123456</v>
@@ -5311,18 +5033,18 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
@@ -5336,21 +5058,21 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="18">
@@ -5361,21 +5083,21 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2">
         <v>123456</v>
@@ -5401,11 +5123,170 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -5424,16 +5305,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -5446,22 +5327,22 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5469,22 +5350,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F3" s="15">
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="16">
@@ -5497,19 +5378,19 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="25" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F4" s="15">
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="16">
@@ -5522,10 +5403,10 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="25" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E5" s="17">
         <v>2345454447</v>
@@ -5534,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="16">
@@ -5547,19 +5428,19 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F6" s="15">
         <v>4</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="16">
@@ -5572,19 +5453,19 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F7" s="15">
         <v>3</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="16">
@@ -5597,19 +5478,19 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F8" s="15">
         <v>3</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="16">
@@ -5622,17 +5503,17 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="18">
@@ -5645,17 +5526,17 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="18">
@@ -5668,17 +5549,17 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="18">
@@ -5691,13 +5572,13 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -5757,40 +5638,40 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5798,22 +5679,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="18">
         <v>200</v>
@@ -5825,19 +5706,19 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18">
         <v>200</v>
@@ -5849,10 +5730,10 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E5" s="12">
         <v>1312132224</v>
@@ -5861,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5" s="18">
         <v>200</v>
@@ -5873,10 +5754,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2">
         <v>2345454446</v>
@@ -5885,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H6" s="18">
         <v>400</v>
@@ -5897,19 +5778,19 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="18">
         <v>400</v>
@@ -5921,10 +5802,10 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E8" s="12">
         <v>13121333333</v>
@@ -5933,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H8" s="18">
         <v>400</v>
@@ -5945,17 +5826,17 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" s="18">
         <v>300</v>
@@ -5967,17 +5848,17 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10" s="18">
         <v>300</v>
@@ -5989,17 +5870,17 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H11" s="18">
         <v>300</v>
@@ -6011,13 +5892,13 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -6077,21 +5958,21 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6099,22 +5980,22 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6122,22 +6003,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
@@ -6152,19 +6033,19 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2">
         <v>123456</v>
@@ -6179,19 +6060,19 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>123456</v>
@@ -6206,19 +6087,19 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>123456</v>
@@ -6233,17 +6114,17 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>123456</v>
@@ -6258,17 +6139,17 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>123456</v>
@@ -6283,17 +6164,17 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
         <v>123456</v>
@@ -6308,16 +6189,16 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -6333,19 +6214,19 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="18">
@@ -6391,32 +6272,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6424,16 +6305,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F3" s="18">
         <v>200</v>
@@ -6445,13 +6326,13 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="25" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F4" s="18">
         <v>325</v>
@@ -6463,11 +6344,11 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="26" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F5" s="18">
         <v>300</v>
@@ -6479,10 +6360,10 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="18">
@@ -6529,53 +6410,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>6</v>
+      <c r="B3" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F3" s="18">
         <v>1234567</v>
@@ -6588,15 +6469,15 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F4" s="18">
         <v>123456</v>
@@ -6609,15 +6490,15 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F5" s="18">
         <v>12346</v>
@@ -6630,13 +6511,13 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18">
         <v>123467</v>
@@ -6649,12 +6530,12 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="18">
@@ -6668,15 +6549,15 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18">
@@ -6687,15 +6568,15 @@
       <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="25" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F9" s="18">
         <v>123456</v>

--- a/file/ucenter接口设计.xlsx
+++ b/file/ucenter接口设计.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="905" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登陆" sheetId="9" r:id="rId2"/>
     <sheet name="封闭登陆" sheetId="10" r:id="rId3"/>
     <sheet name="退出" sheetId="11" r:id="rId4"/>
-    <sheet name="绑定" sheetId="3" r:id="rId5"/>
-    <sheet name="解绑" sheetId="2" r:id="rId6"/>
-    <sheet name="账号关联" sheetId="5" r:id="rId7"/>
-    <sheet name="取消关联" sheetId="6" r:id="rId8"/>
-    <sheet name="找回密码" sheetId="7" r:id="rId9"/>
-    <sheet name="修改密码" sheetId="8" r:id="rId10"/>
-    <sheet name="非用户信息" sheetId="12" r:id="rId11"/>
-    <sheet name="登陆用户信息" sheetId="13" r:id="rId12"/>
-    <sheet name="系统来源" sheetId="14" r:id="rId13"/>
-    <sheet name="重复性校验1" sheetId="15" r:id="rId14"/>
-    <sheet name="手机号不存在关联" sheetId="16" r:id="rId15"/>
-    <sheet name="手机号存在关联" sheetId="19" r:id="rId16"/>
-    <sheet name="手机号是否可以关联" sheetId="18" r:id="rId17"/>
-    <sheet name="修改账号信息" sheetId="17" r:id="rId18"/>
+    <sheet name="请求" sheetId="20" r:id="rId5"/>
+    <sheet name="绑定" sheetId="3" r:id="rId6"/>
+    <sheet name="解绑" sheetId="2" r:id="rId7"/>
+    <sheet name="账号关联" sheetId="5" r:id="rId8"/>
+    <sheet name="取消关联" sheetId="6" r:id="rId9"/>
+    <sheet name="找回密码" sheetId="7" r:id="rId10"/>
+    <sheet name="修改密码" sheetId="8" r:id="rId11"/>
+    <sheet name="非用户信息" sheetId="12" r:id="rId12"/>
+    <sheet name="登陆用户信息" sheetId="13" r:id="rId13"/>
+    <sheet name="系统来源" sheetId="14" r:id="rId14"/>
+    <sheet name="重复性校验1" sheetId="15" r:id="rId15"/>
+    <sheet name="手机号不存在关联" sheetId="16" r:id="rId16"/>
+    <sheet name="手机号存在关联" sheetId="19" r:id="rId17"/>
+    <sheet name="手机号是否可以关联" sheetId="18" r:id="rId18"/>
+    <sheet name="修改账号信息" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="261">
   <si>
     <t>账号关联</t>
   </si>
@@ -1075,6 +1076,26 @@
     <t>sid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>request url</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1083,7 +1104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1171,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1297,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1431,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1778,27 +1811,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1852,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1845,7 +1878,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1902,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1926,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1917,7 +1950,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1974,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +1998,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3" t="s">
         <v>249</v>
       </c>
@@ -1989,7 +2022,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2046,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2035,7 +2068,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2057,7 +2090,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +2112,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2119,6 +2152,220 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1234567</v>
+      </c>
+      <c r="G3" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="18">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="18">
+        <v>12346</v>
+      </c>
+      <c r="G5" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="18">
+        <v>123467</v>
+      </c>
+      <c r="G6" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="18">
+        <v>123467</v>
+      </c>
+      <c r="G7" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="18">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2138,27 +2385,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2426,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -2205,7 +2452,7 @@
       <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2229,7 +2476,7 @@
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
         <v>190</v>
       </c>
@@ -2251,7 +2498,7 @@
       <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2520,7 @@
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="25" t="s">
         <v>185</v>
       </c>
@@ -2295,7 +2542,7 @@
       <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2317,7 +2564,7 @@
       <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
         <v>81</v>
       </c>
@@ -2356,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -2375,26 +2622,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2412,7 +2659,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2435,7 +2682,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="9" t="s">
         <v>103</v>
       </c>
@@ -2456,7 +2703,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>104</v>
       </c>
@@ -2477,7 +2724,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="9" t="s">
         <v>105</v>
       </c>
@@ -2498,7 +2745,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>106</v>
       </c>
@@ -2519,7 +2766,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>107</v>
       </c>
@@ -2540,7 +2787,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>108</v>
       </c>
@@ -2561,7 +2808,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>110</v>
       </c>
@@ -2582,7 +2829,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>111</v>
       </c>
@@ -2603,7 +2850,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>113</v>
       </c>
@@ -2624,7 +2871,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>115</v>
       </c>
@@ -2645,7 +2892,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="9" t="s">
         <v>117</v>
       </c>
@@ -2666,7 +2913,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
@@ -2685,7 +2932,7 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>74</v>
       </c>
@@ -2704,7 +2951,7 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>73</v>
       </c>
@@ -2743,7 +2990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2762,25 +3009,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +3042,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -2815,7 +3062,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="28" t="s">
         <v>194</v>
       </c>
@@ -2833,7 +3080,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="28" t="s">
         <v>170</v>
       </c>
@@ -2849,7 +3096,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="28" t="s">
         <v>196</v>
       </c>
@@ -2880,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2897,24 +3144,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +3173,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2943,7 +3190,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
@@ -2958,7 +3205,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2971,7 +3218,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
         <v>122</v>
       </c>
@@ -3001,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3020,25 +3267,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
@@ -3053,7 +3300,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3069,7 +3316,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3079,7 +3326,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3089,7 +3336,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
@@ -3114,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3134,27 +3381,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
@@ -3175,7 +3422,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3201,7 +3448,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>131</v>
       </c>
@@ -3225,7 +3472,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
         <v>132</v>
       </c>
@@ -3249,7 +3496,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
         <v>133</v>
       </c>
@@ -3271,7 +3518,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
@@ -3293,7 +3540,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
@@ -3315,7 +3562,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
@@ -3352,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -3373,28 +3620,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="22" t="s">
         <v>210</v>
       </c>
@@ -3418,7 +3665,7 @@
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3447,7 +3694,7 @@
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="22" t="s">
         <v>213</v>
       </c>
@@ -3474,7 +3721,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="22" t="s">
         <v>216</v>
       </c>
@@ -3501,7 +3748,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="22" t="s">
         <v>218</v>
       </c>
@@ -3528,7 +3775,7 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="22" t="s">
         <v>133</v>
       </c>
@@ -3553,7 +3800,7 @@
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
@@ -3578,7 +3825,7 @@
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -3603,7 +3850,7 @@
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="22" t="s">
         <v>215</v>
       </c>
@@ -3628,7 +3875,7 @@
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="22" t="s">
         <v>214</v>
       </c>
@@ -3668,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3686,25 +3933,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
@@ -3719,7 +3966,7 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>201</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3739,7 +3986,7 @@
       <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="25" t="s">
         <v>204</v>
       </c>
@@ -3757,7 +4004,7 @@
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
         <v>208</v>
       </c>
@@ -3775,7 +4022,7 @@
       <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="25" t="s">
         <v>209</v>
       </c>
@@ -3793,7 +4040,7 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="25" t="s">
         <v>202</v>
       </c>
@@ -3826,7 +4073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3847,27 +4094,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +4135,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3914,7 +4161,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="3" t="s">
         <v>141</v>
       </c>
@@ -3938,7 +4185,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="3" t="s">
         <v>143</v>
       </c>
@@ -3962,7 +4209,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
@@ -3986,7 +4233,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="3" t="s">
         <v>146</v>
       </c>
@@ -4010,7 +4257,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="3" t="s">
         <v>148</v>
       </c>
@@ -4034,7 +4281,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="3" t="s">
         <v>100</v>
       </c>
@@ -4058,7 +4305,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="3" t="s">
         <v>149</v>
       </c>
@@ -4080,7 +4327,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="3" t="s">
         <v>150</v>
       </c>
@@ -4102,7 +4349,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
@@ -4124,7 +4371,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
@@ -4146,7 +4393,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="3" t="s">
         <v>151</v>
       </c>
@@ -4170,7 +4417,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="3" t="s">
         <v>152</v>
       </c>
@@ -4194,7 +4441,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="3" t="s">
         <v>153</v>
       </c>
@@ -4263,27 +4510,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
@@ -4304,7 +4551,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4330,7 +4577,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
@@ -4354,7 +4601,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
@@ -4378,7 +4625,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
@@ -4402,7 +4649,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
@@ -4426,7 +4673,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
@@ -4450,7 +4697,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
@@ -4474,7 +4721,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
@@ -4498,7 +4745,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="2" t="s">
         <v>71</v>
       </c>
@@ -4522,7 +4769,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -4544,7 +4791,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
@@ -4566,7 +4813,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
@@ -4588,7 +4835,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
@@ -4610,7 +4857,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
@@ -4668,28 +4915,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
@@ -4713,7 +4960,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4742,7 +4989,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
@@ -4769,7 +5016,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
@@ -4796,7 +5043,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4823,7 +5070,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="10" t="s">
         <v>91</v>
       </c>
@@ -4850,7 +5097,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
@@ -4877,7 +5124,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
@@ -4904,7 +5151,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
@@ -4931,7 +5178,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3" t="s">
         <v>71</v>
       </c>
@@ -4958,7 +5205,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
@@ -4983,7 +5230,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
@@ -5008,7 +5255,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5033,7 +5280,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3" t="s">
         <v>92</v>
       </c>
@@ -5058,7 +5305,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
@@ -5083,7 +5330,7 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
@@ -5127,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5141,24 +5388,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5170,7 +5417,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5187,7 +5434,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
@@ -5202,7 +5449,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
@@ -5217,7 +5464,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
@@ -5232,7 +5479,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
@@ -5247,7 +5494,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5260,7 +5507,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
@@ -5284,10 +5531,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5304,28 +5604,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5649,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -5376,7 +5676,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="25" t="s">
         <v>162</v>
       </c>
@@ -5401,7 +5701,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
         <v>163</v>
       </c>
@@ -5426,7 +5726,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="25" t="s">
         <v>164</v>
       </c>
@@ -5451,7 +5751,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="25" t="s">
         <v>165</v>
       </c>
@@ -5476,7 +5776,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="25" t="s">
         <v>166</v>
       </c>
@@ -5501,7 +5801,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="25" t="s">
         <v>167</v>
       </c>
@@ -5524,7 +5824,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="25" t="s">
         <v>168</v>
       </c>
@@ -5547,7 +5847,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="25" t="s">
         <v>169</v>
       </c>
@@ -5570,7 +5870,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="25" t="s">
         <v>170</v>
       </c>
@@ -5616,7 +5916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -5637,27 +5937,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5678,7 +5978,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -5704,7 +6004,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5728,7 +6028,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5752,7 +6052,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
         <v>252</v>
       </c>
@@ -5776,7 +6076,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3" t="s">
         <v>253</v>
       </c>
@@ -5800,7 +6100,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3" t="s">
         <v>254</v>
       </c>
@@ -5824,7 +6124,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
@@ -5846,7 +6146,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5868,7 +6168,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
@@ -5890,7 +6190,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="25" t="s">
         <v>170</v>
       </c>
@@ -5935,7 +6235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -5957,28 +6257,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +6302,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6031,7 +6331,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
@@ -6058,7 +6358,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
@@ -6085,7 +6385,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -6112,7 +6412,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
@@ -6137,7 +6437,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
@@ -6162,7 +6462,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
@@ -6187,7 +6487,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
@@ -6212,7 +6512,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
@@ -6252,7 +6552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -6271,25 +6571,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6304,7 +6604,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -6324,7 +6624,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="25" t="s">
         <v>174</v>
       </c>
@@ -6342,7 +6642,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
         <v>175</v>
       </c>
@@ -6358,7 +6658,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="25" t="s">
         <v>176</v>
       </c>
@@ -6387,218 +6687,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1234567</v>
-      </c>
-      <c r="G3" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="18">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="18">
-        <v>12346</v>
-      </c>
-      <c r="G5" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="18">
-        <v>123467</v>
-      </c>
-      <c r="G6" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="18">
-        <v>123467</v>
-      </c>
-      <c r="G7" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="18">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:B9"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>